--- a/biology/Zoologie/Hypochilus_pococki/Hypochilus_pococki.xlsx
+++ b/biology/Zoologie/Hypochilus_pococki/Hypochilus_pococki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hypochilus pococki est une espèce d'araignées aranéomorphes de la famille des Hypochilidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypochilus pococki est une espèce d'araignées aranéomorphes de la famille des Hypochilidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Sud des Appalaches aux États-Unis[1],[2]. Elle se rencontre dans le Nord de la Géorgie, dans l'Est du Tennessee, dans l'Ouest de la Caroline du Sud, dans l'Ouest de la Caroline du Nord et dans l'Ouest de la Virginie[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Sud des Appalaches aux États-Unis,. Elle se rencontre dans le Nord de la Géorgie, dans l'Est du Tennessee, dans l'Ouest de la Caroline du Sud, dans l'Ouest de la Caroline du Nord et dans l'Ouest de la Virginie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 10,08 mm et la femelle paratype 12,79 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 10,08 mm et la femelle paratype 12,79 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Reginald Innes Pocock[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Reginald Innes Pocock.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Forster, Platnick &amp; Gray, 1987 : A review of the spider superfamilies Hypochiloidea and Austrochiloidea (Araneae, Araneomorphae). Bulletin of the American Museum of Natural History, no 185, part 1, p. 1-116 (texte intégral).</t>
         </is>
